--- a/DSE/Week-3-SQL/Day3-Functions/take_home_schema.xlsx
+++ b/DSE/Week-3-SQL/Day3-Functions/take_home_schema.xlsx
@@ -12,7 +12,6 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -503,7 +502,7 @@
   <dimension ref="A3:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
